--- a/biology/Botanique/Bacopa_aquatica/Bacopa_aquatica.xlsx
+++ b/biology/Botanique/Bacopa_aquatica/Bacopa_aquatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bacopa aquatica est une espèce herbacée aquatique néotropicale appartenant à la famille des Plantaginaceae (anciennement des Scrophulariaceae). Il s'agit de l'espèce type du genre Bacopa Aubl..
-Elle est connue en Guyane sous le nom de Herbes aux brûlures (créole)[1].
+Elle est connue en Guyane sous le nom de Herbes aux brûlures (créole).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bacopa aquatica est une herbacée hygrophyte ou aquatique, à tiges prostrées ou rampantes formant un tapis. Les feuilles sont lancéolées à marge dentée. Les fleurs sont solitaires, portées par un pédicelles long de plus de 1,5 mm portant des bractées à son au sommet ou à la base du calice, qui est long de 8,5–13,5 mm et comporte des segments distinctement différenciés. On compte 5 étamines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bacopa aquatica est une herbacée hygrophyte ou aquatique, à tiges prostrées ou rampantes formant un tapis. Les feuilles sont lancéolées à marge dentée. Les fleurs sont solitaires, portées par un pédicelles long de plus de 1,5 mm portant des bractées à son au sommet ou à la base du calice, qui est long de 8,5–13,5 mm et comporte des segments distinctement différenciés. On compte 5 étamines.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Bacopa aquatica depuis l'Amérique centrale jusqu'au nord du Brésil en passant par le Venezuela, Trinidad et Tobago, le Guyana, le Suriname et la Guyane[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Bacopa aquatica depuis l'Amérique centrale jusqu'au nord du Brésil en passant par le Venezuela, Trinidad et Tobago, le Guyana, le Suriname et la Guyane.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bacopa aquatica affectionne les cours d'eau lents, les marais, et les étangs peu profonds, entre 0 et 200(–400) m d'altitude[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bacopa aquatica affectionne les cours d'eau lents, les marais, et les étangs peu profonds, entre 0 et 200(–400) m d'altitude.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bacopa aquatica a la réputation d'être « adoucissante » et de guérir les plaies, gerçures, crevasses, brûlures, par l'application de ses feuilles pilées en cataplasmes[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bacopa aquatica a la réputation d'être « adoucissante » et de guérir les plaies, gerçures, crevasses, brûlures, par l'application de ses feuilles pilées en cataplasmes.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « BACOPA aquatica. (Tabula 49.) 
 Planta, caules plures, cylindraccos, ſucculentos, nodoſos, ſupra terram aut aquas ſpargens. E nodis radiculæ, ramoſæ, capillaceæ exeunt. Folia oppoſita, ſeſſilia, amplexicaulia, craſſa, oblonga, concava, acuta, glabra, viridia. Flores ſingulares, pedunculati, alternatim ad axillas foliorum. Infrà calicem, bracte &amp; binæ, carnoſæ, oppofitæ. Corolla cærulea. 
 Florebat Decembri. 
